--- a/Backend/Model Metrics/classification_report_rfc_CAP_vaso.xlsx
+++ b/Backend/Model Metrics/classification_report_rfc_CAP_vaso.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7583333333333333</v>
+        <v>0.9658119658119658</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8584905660377359</v>
+        <v>0.8154639175257732</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8053097345132743</v>
+        <v>0.8842929010620458</v>
       </c>
       <c r="E2" t="n">
-        <v>106</v>
+        <v>970</v>
       </c>
     </row>
     <row r="3">
@@ -481,13 +481,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8369565217391305</v>
+        <v>0.3035019455252918</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7264150943396226</v>
+        <v>0.7358490566037735</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.4297520661157024</v>
       </c>
       <c r="E3" t="n">
         <v>106</v>
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7924528301886793</v>
+        <v>0.8076208178438662</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7924528301886793</v>
+        <v>0.8076208178438662</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7924528301886793</v>
+        <v>0.8076208178438662</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7924528301886793</v>
+        <v>0.8076208178438662</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7976449275362318</v>
+        <v>0.6346569556686288</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7924528301886793</v>
+        <v>0.7756564870647733</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7915437561455261</v>
+        <v>0.6570224835888742</v>
       </c>
       <c r="E5" t="n">
-        <v>212</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="6">
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7976449275362318</v>
+        <v>0.9005658113971076</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7924528301886793</v>
+        <v>0.8076208178438662</v>
       </c>
       <c r="D6" t="n">
-        <v>0.791543756145526</v>
+        <v>0.8395147147197481</v>
       </c>
       <c r="E6" t="n">
-        <v>212</v>
+        <v>1076</v>
       </c>
     </row>
   </sheetData>
